--- a/BookStore/External Files/Bookstore11.xlsx
+++ b/BookStore/External Files/Bookstore11.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="7">
   <si>
     <t>uid</t>
   </si>

--- a/BookStore/External Files/Bookstore11.xlsx
+++ b/BookStore/External Files/Bookstore11.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sarmila\jars\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr documentId="12_ncr:500000_{A0674BB7-B8D7-45C7-B875-0CE3852739A2}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31"/>
   <bookViews>
-    <workbookView windowHeight="7635" windowWidth="15360" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="0"/>
+    <workbookView windowHeight="7575" windowWidth="12060" xWindow="0" yWindow="2520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
+  <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="7">
   <si>
     <t>uid</t>
   </si>
@@ -39,21 +34,21 @@
     <t>bookstore</t>
   </si>
   <si>
-    <t>sri111@gmail.com</t>
-  </si>
-  <si>
     <t>pass</t>
   </si>
   <si>
     <t>jhigyrtd@hgvh</t>
+  </si>
+  <si>
+    <t>gk030994@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,7 +150,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -190,7 +185,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -374,21 +369,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="21.5703125" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="28.28515625" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="19.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -396,29 +391,29 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>1234</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -428,8 +423,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A2" xr:uid="{B9271340-F601-487A-900E-ACAB3D41C7BA}"/>
-    <hyperlink r:id="rId2" ref="A3" xr:uid="{1DA48F6F-0D44-4875-8774-C8D31F761997}"/>
+    <hyperlink r:id="rId1" ref="A2"/>
+    <hyperlink r:id="rId2" ref="A3"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
